--- a/biology/Botanique/Coutarea_hexandra/Coutarea_hexandra.xlsx
+++ b/biology/Botanique/Coutarea_hexandra/Coutarea_hexandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutarea hexandra est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Coutarea.
-Il est connu en Guyane sous les noms de Quinaquina (Créole), Kwik duwẽ (Palikur), Quinarana, Falsa-quina (portugais)[5], au Venezuela comme Bonita de noche, Cabrito negro ou Guatacare amarillo[6] et au Brésil comme Murta-do-mato, quina, quina-branca, quina-de-dom-diogo, quina-de-pernambuco, quina-do-pará, quina-do-piauí, quina-quina, quineira[7].
+Il est connu en Guyane sous les noms de Quinaquina (Créole), Kwik duwẽ (Palikur), Quinarana, Falsa-quina (portugais), au Venezuela comme Bonita de noche, Cabrito negro ou Guatacare amarillo et au Brésil comme Murta-do-mato, quina, quina-branca, quina-de-dom-diogo, quina-de-pernambuco, quina-do-pará, quina-do-piauí, quina-quina, quineira.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coutarea hexandra est un arbuste ou petit arbre atteignant jusqu'à 6 m de haut.
 Les feuilles mesurent 2-16 × 1,5-8 cm.
@@ -520,10 +534,10 @@
 Les inflorescences mesurent 3-8 × 3-8 cm (corolles non comprises).
 Le limbe du calice mesurent 4-12 mm de long.
 La corolle avec tubes longs de 2-7 cm, et des lobes longs de 0,7-2 cm.
-Les fruits sont des capsule capsules mesurant 2-4 × 1,5-2,5 cm contenant des graines de 1-1,5 × 0,5-0,8 cm[6].
+Les fruits sont des capsule capsules mesurant 2-4 × 1,5-2,5 cm contenant des graines de 1-1,5 × 0,5-0,8 cm.
 En 1953, Lemée en propose la description suivante de Coutarea hexandra :
 « C. hexandra K. Schum. (C. speciosa Aubl.). Arbre ou grand arbrisseau glabre ; feuilles de 0,07-0,18 sur O,03-0,09, ovales-ellip­tiques acuminéés, à base arrondie, -glabres ou un peu poilues et parfois barbues à l'aisselle des nervures en dessous, en général avec 8 paires de nervures latérales, stipules largement triangulaires acuminées ; corymbes pauci- multi-flores formés en général de 3-5 cymes, bractées et bractéales petites subulées ciliées ; fleurs pédicellées 6-mères, calice à tube court et segments un peu inégaux acuminés, corolle longue d'environ 0,06, en entonnoir, étamines exsertes, filets de 37 mm. et anthères de 14 mm., style de 45 mm. ; capsule de 0,03-0,08 sur 0,02, ovoïcle. - Herbier Lemée : entre Guatemala et Tonate, feuilles à nervures latérales sur les 2 faces ; autre spécimen entre Tonate et Macouria, feuilles à nervures fortement, imprimées en dessus et très saillantes en dessous, fleurs d'un rose violacé. »
-— Albert Lemée, 1953.[8]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutarea hexandra est présent de l'Amérique centrale au Brésil, en passant par la Colombie le Venezuela, le Guyana, le Suriname, et la Guyane.
 </t>
@@ -582,9 +598,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coutarea hexandra forêts de plaine et formations arbustives à feuilles caduques ou persistantes, à 50-400 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coutarea hexandra forêts de plaine et formations arbustives à feuilles caduques ou persistantes, à 50-400 m d'altitude.
 </t>
         </is>
       </c>
@@ -613,14 +631,16 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, l'écorce de Coutarea hexandra est utilisée en décoction contre les fièvres par les Créoles de l'Oyapock, et comme antidiabétique et vermifuge par les Palikur[5].
-Coutarea hexandra est une espèce populaire dans les pharmacopées du Brésil[9]. Elle est notamment considérée comme antipaludique dans tout le nord du Brésil, bien qu'aucune activité de ce type n'ai été démontrée in vitro[10].
-On a néanmoins isolé des glucosides[11], des aryl-coumarines et des néoflavonoïdes
-[12],[13],[14],[15],[16],[17],[18],[19],[20] qui présentent des propriétés antifongiques, antibiotiques[21], anti-inflammatoires[22],[23], et anti-hépatotoxique[24].
-L'extrait d'écorce de Coutarea hexandra aurait des propriétés alexitère sur le venin de Lachesis muta[25].
-L'extrait de feuilles et d'écorce de Coutarea hexandra présenterait des propriétés mutagènes et anti-oxydantes[26],[27].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, l'écorce de Coutarea hexandra est utilisée en décoction contre les fièvres par les Créoles de l'Oyapock, et comme antidiabétique et vermifuge par les Palikur.
+Coutarea hexandra est une espèce populaire dans les pharmacopées du Brésil. Elle est notamment considérée comme antipaludique dans tout le nord du Brésil, bien qu'aucune activité de ce type n'ai été démontrée in vitro.
+On a néanmoins isolé des glucosides, des aryl-coumarines et des néoflavonoïdes
+ qui présentent des propriétés antifongiques, antibiotiques, anti-inflammatoires et anti-hépatotoxique.
+L'extrait d'écorce de Coutarea hexandra aurait des propriétés alexitère sur le venin de Lachesis muta.
+L'extrait de feuilles et d'écorce de Coutarea hexandra présenterait des propriétés mutagènes et anti-oxydantes,.
 </t>
         </is>
       </c>
@@ -649,12 +669,14 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a décrit Coutarea hexandra sous le nom de Coutarea speciosa et en a proposé le protologue suivant[28] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a décrit Coutarea hexandra sous le nom de Coutarea speciosa et en a proposé le protologue suivant : 
 « 1. COUTAREA (ſpecioſa). (Tabula 122.)
 Silacoïdes laurifolio, flore carneo. Barer. Fran. Equin. 67.
-Portlandia (hexandra) floribus hexandris, Jacq. Amer. p. 63. tab. 182. fig. 20. Lin. Mantiſ. 45.[30]
+Portlandia (hexandra) floribus hexandris, Jacq. Amer. p. 63. tab. 182. fig. 20. Lin. Mantiſ. 45.
 ARBOR trunco viginti-quinque-pedali, ad cacumen ramos plures hinc &amp; indè ſparſos emittente. Rami juniores, &amp; ramuli ſunt oppoſiti. Folia ſuperiora inferioribus alternatim majora, ovata, acuta, glabra, integerrima, oppoſita, brevi petiolata. Stipula ovata, obtuſa, utrinque intra baſim petiolorum. Flores corymboſi, pedunculati, terminales &amp; axillares ; pedunculus communis, ſuſtinet tres pedunculos partiales ; ſingulus partialis très flores etiam pedunculatos, compreſſos ; &amp; omnes duobus foliolis ad baſim muniuntur.
 Corolla ampla, purpurea. Capsula ovato-cordata, compreſſa, rufeſcens.
 Florebat Februario &amp; Junio.
